--- a/Code/Results/Cases/Case_0_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018828450785128</v>
+        <v>1.054625478817785</v>
       </c>
       <c r="D2">
-        <v>1.032003937657752</v>
+        <v>1.06131217168353</v>
       </c>
       <c r="E2">
-        <v>1.031736671260119</v>
+        <v>1.060971200955186</v>
       </c>
       <c r="F2">
-        <v>1.040649686290833</v>
+        <v>1.071224200933356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050510651276898</v>
+        <v>1.041037728062605</v>
       </c>
       <c r="J2">
-        <v>1.040460228953446</v>
+        <v>1.059636593932684</v>
       </c>
       <c r="K2">
-        <v>1.043034710065104</v>
+        <v>1.064036574498938</v>
       </c>
       <c r="L2">
-        <v>1.042770884878102</v>
+        <v>1.063696530457602</v>
       </c>
       <c r="M2">
-        <v>1.051570329419663</v>
+        <v>1.073921943765801</v>
       </c>
       <c r="N2">
-        <v>1.016861269006511</v>
+        <v>1.023606697839558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024113627021525</v>
+        <v>1.055744417997425</v>
       </c>
       <c r="D3">
-        <v>1.036493491935584</v>
+        <v>1.062310261770003</v>
       </c>
       <c r="E3">
-        <v>1.036164870950887</v>
+        <v>1.061958125602051</v>
       </c>
       <c r="F3">
-        <v>1.045350600134903</v>
+        <v>1.072274699234095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051716173077923</v>
+        <v>1.041221652867747</v>
       </c>
       <c r="J3">
-        <v>1.043967839259065</v>
+        <v>1.060406068437119</v>
       </c>
       <c r="K3">
-        <v>1.046679790571156</v>
+        <v>1.064848798435474</v>
       </c>
       <c r="L3">
-        <v>1.04635501727427</v>
+        <v>1.0644975499802</v>
       </c>
       <c r="M3">
-        <v>1.055434319579288</v>
+        <v>1.07478837634353</v>
       </c>
       <c r="N3">
-        <v>1.018067268820343</v>
+        <v>1.023867585178404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027458231276301</v>
+        <v>1.056468637870808</v>
       </c>
       <c r="D4">
-        <v>1.039339920946152</v>
+        <v>1.0629565452467</v>
       </c>
       <c r="E4">
-        <v>1.038972974599809</v>
+        <v>1.062597228101849</v>
       </c>
       <c r="F4">
-        <v>1.048331517599473</v>
+        <v>1.072954982001178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052467538353547</v>
+        <v>1.041339243277458</v>
       </c>
       <c r="J4">
-        <v>1.046184710007791</v>
+        <v>1.060903583739199</v>
       </c>
       <c r="K4">
-        <v>1.04898564627997</v>
+        <v>1.065374198063052</v>
       </c>
       <c r="L4">
-        <v>1.048622727847522</v>
+        <v>1.065015741048275</v>
       </c>
       <c r="M4">
-        <v>1.05787962353283</v>
+        <v>1.075348948594408</v>
       </c>
       <c r="N4">
-        <v>1.018828955685523</v>
+        <v>1.024036143672327</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028847004660739</v>
+        <v>1.056773146039486</v>
       </c>
       <c r="D5">
-        <v>1.040523062961101</v>
+        <v>1.063228350833391</v>
       </c>
       <c r="E5">
-        <v>1.040140321558985</v>
+        <v>1.062866025262084</v>
       </c>
       <c r="F5">
-        <v>1.04957067744358</v>
+        <v>1.073241101871123</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052776716698158</v>
+        <v>1.041388337825004</v>
       </c>
       <c r="J5">
-        <v>1.04710449190477</v>
+        <v>1.061112646561037</v>
       </c>
       <c r="K5">
-        <v>1.049942852296409</v>
+        <v>1.065595036692842</v>
       </c>
       <c r="L5">
-        <v>1.049564196488872</v>
+        <v>1.06523355910598</v>
       </c>
       <c r="M5">
-        <v>1.058894947856263</v>
+        <v>1.075584596735301</v>
       </c>
       <c r="N5">
-        <v>1.019144847279385</v>
+        <v>1.024106944935762</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029079191590674</v>
+        <v>1.056824277015386</v>
       </c>
       <c r="D6">
-        <v>1.040720941279294</v>
+        <v>1.063273994512523</v>
       </c>
       <c r="E6">
-        <v>1.040335566059037</v>
+        <v>1.062911164425409</v>
       </c>
       <c r="F6">
-        <v>1.049777931506825</v>
+        <v>1.073289150211569</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052828241296561</v>
+        <v>1.041396561044595</v>
       </c>
       <c r="J6">
-        <v>1.047258225006246</v>
+        <v>1.061147743693228</v>
       </c>
       <c r="K6">
-        <v>1.050102870143225</v>
+        <v>1.065632114155433</v>
       </c>
       <c r="L6">
-        <v>1.049721589189959</v>
+        <v>1.065270129981676</v>
       </c>
       <c r="M6">
-        <v>1.059064694962068</v>
+        <v>1.075624162123917</v>
       </c>
       <c r="N6">
-        <v>1.019197637639644</v>
+        <v>1.024118829214149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027476855182699</v>
+        <v>1.056472706542188</v>
       </c>
       <c r="D7">
-        <v>1.039355782492984</v>
+        <v>1.062960176702215</v>
       </c>
       <c r="E7">
-        <v>1.038988623862746</v>
+        <v>1.062600819317578</v>
       </c>
       <c r="F7">
-        <v>1.048348129676557</v>
+        <v>1.072958804642412</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052471695697491</v>
+        <v>1.041339900619248</v>
       </c>
       <c r="J7">
-        <v>1.046197047505231</v>
+        <v>1.060906377610962</v>
       </c>
       <c r="K7">
-        <v>1.048998483772849</v>
+        <v>1.065377149074612</v>
       </c>
       <c r="L7">
-        <v>1.048635353896107</v>
+        <v>1.065018651659899</v>
       </c>
       <c r="M7">
-        <v>1.057893239565284</v>
+        <v>1.075352097401297</v>
       </c>
       <c r="N7">
-        <v>1.018833193433339</v>
+        <v>1.024037089961072</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020630629411945</v>
+        <v>1.055003590107941</v>
       </c>
       <c r="D8">
-        <v>1.03353367145009</v>
+        <v>1.061649387035491</v>
       </c>
       <c r="E8">
-        <v>1.033245377605679</v>
+        <v>1.061304633804516</v>
       </c>
       <c r="F8">
-        <v>1.042251335760729</v>
+        <v>1.071579109729429</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050924109987442</v>
+        <v>1.041100180459965</v>
       </c>
       <c r="J8">
-        <v>1.041656849421841</v>
+        <v>1.059896721301164</v>
       </c>
       <c r="K8">
-        <v>1.044277786813204</v>
+        <v>1.064311103120781</v>
       </c>
       <c r="L8">
-        <v>1.043993089776422</v>
+        <v>1.063967263904236</v>
       </c>
       <c r="M8">
-        <v>1.052887856520204</v>
+        <v>1.074214772546179</v>
       </c>
       <c r="N8">
-        <v>1.017272801871744</v>
+        <v>1.023694918248115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007955806702191</v>
+        <v>1.052416270855899</v>
       </c>
       <c r="D9">
-        <v>1.022799827698622</v>
+        <v>1.059343086414536</v>
       </c>
       <c r="E9">
-        <v>1.022661629120897</v>
+        <v>1.059024404508379</v>
       </c>
       <c r="F9">
-        <v>1.03101491339391</v>
+        <v>1.069152061025528</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047969071323892</v>
+        <v>1.040666887208824</v>
       </c>
       <c r="J9">
-        <v>1.033230719399086</v>
+        <v>1.058114627272488</v>
       </c>
       <c r="K9">
-        <v>1.035533515425341</v>
+        <v>1.062431350257568</v>
       </c>
       <c r="L9">
-        <v>1.035397433654958</v>
+        <v>1.062113658790376</v>
       </c>
       <c r="M9">
-        <v>1.043624067149596</v>
+        <v>1.072210154395871</v>
       </c>
       <c r="N9">
-        <v>1.014372992111549</v>
+        <v>1.023090036068289</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9990432215386802</v>
+        <v>1.050692344423985</v>
       </c>
       <c r="D10">
-        <v>1.015286389687036</v>
+        <v>1.057807906194489</v>
       </c>
       <c r="E10">
-        <v>1.015256633788731</v>
+        <v>1.057506833699419</v>
       </c>
       <c r="F10">
-        <v>1.023152265724517</v>
+        <v>1.067536834052123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045833286798676</v>
+        <v>1.040370724459911</v>
       </c>
       <c r="J10">
-        <v>1.027294851647625</v>
+        <v>1.056924587669662</v>
       </c>
       <c r="K10">
-        <v>1.029385021865792</v>
+        <v>1.061177355364668</v>
       </c>
       <c r="L10">
-        <v>1.029355782504979</v>
+        <v>1.060877310643747</v>
       </c>
       <c r="M10">
-        <v>1.03711571352153</v>
+        <v>1.070873414197286</v>
       </c>
       <c r="N10">
-        <v>1.012328022371149</v>
+        <v>1.02268548998078</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9950614268157834</v>
+        <v>1.049946085282966</v>
       </c>
       <c r="D11">
-        <v>1.011938744242864</v>
+        <v>1.057143716743873</v>
       </c>
       <c r="E11">
-        <v>1.011958155853994</v>
+        <v>1.056850323968651</v>
       </c>
       <c r="F11">
-        <v>1.019649639956609</v>
+        <v>1.066838090707149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04486608509812</v>
+        <v>1.040240753264235</v>
       </c>
       <c r="J11">
-        <v>1.024641109261632</v>
+        <v>1.056408819162864</v>
       </c>
       <c r="K11">
-        <v>1.02663897152098</v>
+        <v>1.060634167046795</v>
       </c>
       <c r="L11">
-        <v>1.02665802822574</v>
+        <v>1.060341814773412</v>
       </c>
       <c r="M11">
-        <v>1.034210268796981</v>
+        <v>1.070294514930001</v>
       </c>
       <c r="N11">
-        <v>1.011413371289711</v>
+        <v>1.022510012120831</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9935627980423156</v>
+        <v>1.049668922689477</v>
       </c>
       <c r="D12">
-        <v>1.010680236869444</v>
+        <v>1.056897090486069</v>
       </c>
       <c r="E12">
-        <v>1.010718264661067</v>
+        <v>1.056606558562936</v>
       </c>
       <c r="F12">
-        <v>1.018332961481484</v>
+        <v>1.066578645650943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044500168012012</v>
+        <v>1.040192216266221</v>
       </c>
       <c r="J12">
-        <v>1.023642112671628</v>
+        <v>1.056217168591504</v>
       </c>
       <c r="K12">
-        <v>1.025605641530042</v>
+        <v>1.060432372643269</v>
       </c>
       <c r="L12">
-        <v>1.025642960755467</v>
+        <v>1.060142885415386</v>
       </c>
       <c r="M12">
-        <v>1.033117162120483</v>
+        <v>1.070079473704228</v>
       </c>
       <c r="N12">
-        <v>1.011069000516385</v>
+        <v>1.022444785821129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9938851668223281</v>
+        <v>1.049728373601276</v>
       </c>
       <c r="D13">
-        <v>1.010950886577347</v>
+        <v>1.056949988885685</v>
       </c>
       <c r="E13">
-        <v>1.010984904795663</v>
+        <v>1.056658842925548</v>
       </c>
       <c r="F13">
-        <v>1.018616117087064</v>
+        <v>1.066634292999751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044578964487941</v>
+        <v>1.040202639376557</v>
       </c>
       <c r="J13">
-        <v>1.023857014216352</v>
+        <v>1.056258281511539</v>
       </c>
       <c r="K13">
-        <v>1.025827909961087</v>
+        <v>1.060475659588722</v>
       </c>
       <c r="L13">
-        <v>1.025861296884546</v>
+        <v>1.060185557448791</v>
       </c>
       <c r="M13">
-        <v>1.033352279240468</v>
+        <v>1.070125601331255</v>
       </c>
       <c r="N13">
-        <v>1.011143082855204</v>
+        <v>1.022458779164668</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.994937957058911</v>
+        <v>1.049923174302076</v>
       </c>
       <c r="D14">
-        <v>1.011835027830534</v>
+        <v>1.057123328841128</v>
       </c>
       <c r="E14">
-        <v>1.011855970928293</v>
+        <v>1.056830172376057</v>
       </c>
       <c r="F14">
-        <v>1.019541127665198</v>
+        <v>1.066816642870986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044835975781523</v>
+        <v>1.040236746482205</v>
       </c>
       <c r="J14">
-        <v>1.024558807247563</v>
+        <v>1.056392978719221</v>
       </c>
       <c r="K14">
-        <v>1.026553832498428</v>
+        <v>1.060617487271951</v>
       </c>
       <c r="L14">
-        <v>1.026574392086836</v>
+        <v>1.060325371666346</v>
       </c>
       <c r="M14">
-        <v>1.034120200457474</v>
+        <v>1.070276739805064</v>
       </c>
       <c r="N14">
-        <v>1.011385001415112</v>
+        <v>1.0225046214327</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9955839795182054</v>
+        <v>1.050043201569049</v>
       </c>
       <c r="D15">
-        <v>1.012377755643814</v>
+        <v>1.057230140346287</v>
       </c>
       <c r="E15">
-        <v>1.012390690186875</v>
+        <v>1.056935746238781</v>
       </c>
       <c r="F15">
-        <v>1.020108955126812</v>
+        <v>1.06692900781025</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044993438073827</v>
+        <v>1.04025772655881</v>
       </c>
       <c r="J15">
-        <v>1.024989422486204</v>
+        <v>1.056475960680648</v>
       </c>
       <c r="K15">
-        <v>1.026999308299699</v>
+        <v>1.060704868003311</v>
       </c>
       <c r="L15">
-        <v>1.027012007931787</v>
+        <v>1.060411512859748</v>
       </c>
       <c r="M15">
-        <v>1.03459147637996</v>
+        <v>1.070369859583544</v>
       </c>
       <c r="N15">
-        <v>1.01153343436386</v>
+        <v>1.022532860272542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9993047975589404</v>
+        <v>1.050741875606269</v>
       </c>
       <c r="D16">
-        <v>1.015506502156449</v>
+        <v>1.0578519979345</v>
       </c>
       <c r="E16">
-        <v>1.015473531507536</v>
+        <v>1.05755041691819</v>
       </c>
       <c r="F16">
-        <v>1.023382581108976</v>
+        <v>1.067583221272031</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045896559708248</v>
+        <v>1.040379313764971</v>
       </c>
       <c r="J16">
-        <v>1.027469151496258</v>
+        <v>1.056958807546783</v>
       </c>
       <c r="K16">
-        <v>1.029565441990198</v>
+        <v>1.061213400766019</v>
       </c>
       <c r="L16">
-        <v>1.029533041691098</v>
+        <v>1.060912846605211</v>
       </c>
       <c r="M16">
-        <v>1.037306634028979</v>
+        <v>1.070911832112813</v>
       </c>
       <c r="N16">
-        <v>1.012388089644827</v>
+        <v>1.022697129412207</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001605134910949</v>
+        <v>1.051180191786536</v>
       </c>
       <c r="D17">
-        <v>1.017443242769487</v>
+        <v>1.058242221077712</v>
       </c>
       <c r="E17">
-        <v>1.017382083229881</v>
+        <v>1.057936146583961</v>
       </c>
       <c r="F17">
-        <v>1.025409165405555</v>
+        <v>1.067993769013603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046451519302605</v>
+        <v>1.040455118914976</v>
       </c>
       <c r="J17">
-        <v>1.029001769590512</v>
+        <v>1.057261557826921</v>
       </c>
       <c r="K17">
-        <v>1.031152188336138</v>
+        <v>1.061532336325555</v>
       </c>
       <c r="L17">
-        <v>1.031092054347773</v>
+        <v>1.06122728015893</v>
       </c>
       <c r="M17">
-        <v>1.03898587960782</v>
+        <v>1.07125177525804</v>
       </c>
       <c r="N17">
-        <v>1.012916215724533</v>
+        <v>1.022800089034501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002935140773417</v>
+        <v>1.051435874732407</v>
       </c>
       <c r="D18">
-        <v>1.018563877359455</v>
+        <v>1.058469885054718</v>
       </c>
       <c r="E18">
-        <v>1.018486487545454</v>
+        <v>1.058161194869457</v>
       </c>
       <c r="F18">
-        <v>1.026581843243363</v>
+        <v>1.06823329829719</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046771148065615</v>
+        <v>1.040499167774075</v>
       </c>
       <c r="J18">
-        <v>1.029887718788467</v>
+        <v>1.05743810125971</v>
       </c>
       <c r="K18">
-        <v>1.032069687222056</v>
+        <v>1.06171834671922</v>
       </c>
       <c r="L18">
-        <v>1.031993571475172</v>
+        <v>1.06141066955602</v>
       </c>
       <c r="M18">
-        <v>1.039956989436381</v>
+        <v>1.071450050433985</v>
       </c>
       <c r="N18">
-        <v>1.013221466356254</v>
+        <v>1.022860114039883</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003386681469342</v>
+        <v>1.051523059511551</v>
       </c>
       <c r="D19">
-        <v>1.018944478119036</v>
+        <v>1.058547521645737</v>
       </c>
       <c r="E19">
-        <v>1.018861589523199</v>
+        <v>1.058237940471269</v>
       </c>
       <c r="F19">
-        <v>1.026980129273898</v>
+        <v>1.068314982400284</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046879451228282</v>
+        <v>1.040514158966569</v>
       </c>
       <c r="J19">
-        <v>1.030188468902103</v>
+        <v>1.057498290260652</v>
       </c>
       <c r="K19">
-        <v>1.032381191462243</v>
+        <v>1.06178176817886</v>
       </c>
       <c r="L19">
-        <v>1.032299658878741</v>
+        <v>1.061473198162022</v>
       </c>
       <c r="M19">
-        <v>1.040286716548737</v>
+        <v>1.071517655802081</v>
       </c>
       <c r="N19">
-        <v>1.013325081793746</v>
+        <v>1.022880575992539</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001359553339468</v>
+        <v>1.051133162489071</v>
       </c>
       <c r="D20">
-        <v>1.017236389329919</v>
+        <v>1.058200348301292</v>
       </c>
       <c r="E20">
-        <v>1.0171782321353</v>
+        <v>1.057894755368948</v>
       </c>
       <c r="F20">
-        <v>1.025192710200294</v>
+        <v>1.06794971453349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04639240034211</v>
+        <v>1.04044700301273</v>
       </c>
       <c r="J20">
-        <v>1.028838166897541</v>
+        <v>1.057229080312535</v>
       </c>
       <c r="K20">
-        <v>1.030982780582967</v>
+        <v>1.061498119556815</v>
       </c>
       <c r="L20">
-        <v>1.030925601880422</v>
+        <v>1.061193545900931</v>
       </c>
       <c r="M20">
-        <v>1.038806583203703</v>
+        <v>1.071215303393387</v>
       </c>
       <c r="N20">
-        <v>1.012859843757169</v>
+        <v>1.022789045502564</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9946284880909122</v>
+        <v>1.049865809492561</v>
       </c>
       <c r="D21">
-        <v>1.01157509293507</v>
+        <v>1.057072282245071</v>
       </c>
       <c r="E21">
-        <v>1.011599876402635</v>
+        <v>1.056779717595196</v>
       </c>
       <c r="F21">
-        <v>1.019269174780097</v>
+        <v>1.066762942636062</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044760478496376</v>
+        <v>1.040226709963483</v>
       </c>
       <c r="J21">
-        <v>1.024352519469498</v>
+        <v>1.05635331571416</v>
       </c>
       <c r="K21">
-        <v>1.026340440539215</v>
+        <v>1.060575723384393</v>
       </c>
       <c r="L21">
-        <v>1.026364768384889</v>
+        <v>1.060284200480737</v>
       </c>
       <c r="M21">
-        <v>1.033894456966783</v>
+        <v>1.070232233629667</v>
       </c>
       <c r="N21">
-        <v>1.011313892284849</v>
+        <v>1.022491123296845</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.990282258900386</v>
+        <v>1.049069155022373</v>
       </c>
       <c r="D22">
-        <v>1.007928090091018</v>
+        <v>1.056363504202542</v>
       </c>
       <c r="E22">
-        <v>1.0080070768141</v>
+        <v>1.056079178773072</v>
       </c>
       <c r="F22">
-        <v>1.015453773299748</v>
+        <v>1.066017346798743</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04369575971149</v>
+        <v>1.040086699286748</v>
       </c>
       <c r="J22">
-        <v>1.021454979247249</v>
+        <v>1.055802275885934</v>
       </c>
       <c r="K22">
-        <v>1.02334410923166</v>
+        <v>1.059995602290849</v>
       </c>
       <c r="L22">
-        <v>1.023421563469052</v>
+        <v>1.059712329635733</v>
       </c>
       <c r="M22">
-        <v>1.030725180940088</v>
+        <v>1.069614067729065</v>
       </c>
       <c r="N22">
-        <v>1.010314974124168</v>
+        <v>1.022303541622005</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9925975224446337</v>
+        <v>1.049491459715039</v>
       </c>
       <c r="D23">
-        <v>1.00987004358312</v>
+        <v>1.056739195149362</v>
       </c>
       <c r="E23">
-        <v>1.009920093824066</v>
+        <v>1.056450497407016</v>
       </c>
       <c r="F23">
-        <v>1.017485345109698</v>
+        <v>1.066412546749768</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044263954053536</v>
+        <v>1.040161064088138</v>
       </c>
       <c r="J23">
-        <v>1.022998603551835</v>
+        <v>1.05609443157975</v>
       </c>
       <c r="K23">
-        <v>1.024940133885209</v>
+        <v>1.060303151949804</v>
       </c>
       <c r="L23">
-        <v>1.024989240248412</v>
+        <v>1.060015501435247</v>
       </c>
       <c r="M23">
-        <v>1.032413213452551</v>
+        <v>1.069941775875494</v>
       </c>
       <c r="N23">
-        <v>1.010847158743839</v>
+        <v>1.022403007421254</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001470557279022</v>
+        <v>1.051154412940533</v>
       </c>
       <c r="D24">
-        <v>1.017329885347075</v>
+        <v>1.058219268641387</v>
       </c>
       <c r="E24">
-        <v>1.017270370868936</v>
+        <v>1.057913458095874</v>
       </c>
       <c r="F24">
-        <v>1.025290545955045</v>
+        <v>1.067969620659705</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046419126211361</v>
+        <v>1.040450670755585</v>
       </c>
       <c r="J24">
-        <v>1.028912116583667</v>
+        <v>1.057243755644331</v>
       </c>
       <c r="K24">
-        <v>1.031059353394464</v>
+        <v>1.061513580701345</v>
       </c>
       <c r="L24">
-        <v>1.031000838724694</v>
+        <v>1.061208789004347</v>
       </c>
       <c r="M24">
-        <v>1.038887625326254</v>
+        <v>1.071231783483428</v>
       </c>
       <c r="N24">
-        <v>1.012885324446261</v>
+        <v>1.022794035690713</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011310057819107</v>
+        <v>1.053084985246027</v>
       </c>
       <c r="D25">
-        <v>1.025634810499571</v>
+        <v>1.059938906674737</v>
       </c>
       <c r="E25">
-        <v>1.025456402140303</v>
+        <v>1.059613444571704</v>
       </c>
       <c r="F25">
-        <v>1.033982189562286</v>
+        <v>1.069779017920592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048761264854244</v>
+        <v>1.040780191530336</v>
       </c>
       <c r="J25">
-        <v>1.035462697701345</v>
+        <v>1.058575690246518</v>
       </c>
       <c r="K25">
-        <v>1.037847798158419</v>
+        <v>1.062917457796283</v>
       </c>
       <c r="L25">
-        <v>1.037671987082549</v>
+        <v>1.062592968703551</v>
       </c>
       <c r="M25">
-        <v>1.046074923425674</v>
+        <v>1.072728454975551</v>
       </c>
       <c r="N25">
-        <v>1.015141522843891</v>
+        <v>1.023246640765683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054625478817785</v>
+        <v>1.018828450785129</v>
       </c>
       <c r="D2">
-        <v>1.06131217168353</v>
+        <v>1.032003937657754</v>
       </c>
       <c r="E2">
-        <v>1.060971200955186</v>
+        <v>1.031736671260121</v>
       </c>
       <c r="F2">
-        <v>1.071224200933356</v>
+        <v>1.040649686290835</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041037728062605</v>
+        <v>1.050510651276898</v>
       </c>
       <c r="J2">
-        <v>1.059636593932684</v>
+        <v>1.040460228953447</v>
       </c>
       <c r="K2">
-        <v>1.064036574498938</v>
+        <v>1.043034710065105</v>
       </c>
       <c r="L2">
-        <v>1.063696530457602</v>
+        <v>1.042770884878103</v>
       </c>
       <c r="M2">
-        <v>1.073921943765801</v>
+        <v>1.051570329419665</v>
       </c>
       <c r="N2">
-        <v>1.023606697839558</v>
+        <v>1.016861269006511</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055744417997425</v>
+        <v>1.024113627021525</v>
       </c>
       <c r="D3">
-        <v>1.062310261770003</v>
+        <v>1.036493491935584</v>
       </c>
       <c r="E3">
-        <v>1.061958125602051</v>
+        <v>1.036164870950886</v>
       </c>
       <c r="F3">
-        <v>1.072274699234095</v>
+        <v>1.045350600134902</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041221652867747</v>
+        <v>1.051716173077923</v>
       </c>
       <c r="J3">
-        <v>1.060406068437119</v>
+        <v>1.043967839259064</v>
       </c>
       <c r="K3">
-        <v>1.064848798435474</v>
+        <v>1.046679790571154</v>
       </c>
       <c r="L3">
-        <v>1.0644975499802</v>
+        <v>1.046355017274269</v>
       </c>
       <c r="M3">
-        <v>1.07478837634353</v>
+        <v>1.055434319579287</v>
       </c>
       <c r="N3">
-        <v>1.023867585178404</v>
+        <v>1.018067268820343</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056468637870808</v>
+        <v>1.027458231276301</v>
       </c>
       <c r="D4">
-        <v>1.0629565452467</v>
+        <v>1.039339920946151</v>
       </c>
       <c r="E4">
-        <v>1.062597228101849</v>
+        <v>1.038972974599809</v>
       </c>
       <c r="F4">
-        <v>1.072954982001178</v>
+        <v>1.048331517599472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041339243277458</v>
+        <v>1.052467538353547</v>
       </c>
       <c r="J4">
-        <v>1.060903583739199</v>
+        <v>1.04618471000779</v>
       </c>
       <c r="K4">
-        <v>1.065374198063052</v>
+        <v>1.048985646279969</v>
       </c>
       <c r="L4">
-        <v>1.065015741048275</v>
+        <v>1.048622727847521</v>
       </c>
       <c r="M4">
-        <v>1.075348948594408</v>
+        <v>1.05787962353283</v>
       </c>
       <c r="N4">
-        <v>1.024036143672327</v>
+        <v>1.018828955685523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056773146039486</v>
+        <v>1.028847004660739</v>
       </c>
       <c r="D5">
-        <v>1.063228350833391</v>
+        <v>1.040523062961103</v>
       </c>
       <c r="E5">
-        <v>1.062866025262084</v>
+        <v>1.040140321558986</v>
       </c>
       <c r="F5">
-        <v>1.073241101871123</v>
+        <v>1.049570677443581</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041388337825004</v>
+        <v>1.052776716698159</v>
       </c>
       <c r="J5">
-        <v>1.061112646561037</v>
+        <v>1.047104491904771</v>
       </c>
       <c r="K5">
-        <v>1.065595036692842</v>
+        <v>1.04994285229641</v>
       </c>
       <c r="L5">
-        <v>1.06523355910598</v>
+        <v>1.049564196488872</v>
       </c>
       <c r="M5">
-        <v>1.075584596735301</v>
+        <v>1.058894947856264</v>
       </c>
       <c r="N5">
-        <v>1.024106944935762</v>
+        <v>1.019144847279385</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056824277015386</v>
+        <v>1.029079191590674</v>
       </c>
       <c r="D6">
-        <v>1.063273994512523</v>
+        <v>1.040720941279294</v>
       </c>
       <c r="E6">
-        <v>1.062911164425409</v>
+        <v>1.040335566059036</v>
       </c>
       <c r="F6">
-        <v>1.073289150211569</v>
+        <v>1.049777931506825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041396561044595</v>
+        <v>1.052828241296561</v>
       </c>
       <c r="J6">
-        <v>1.061147743693228</v>
+        <v>1.047258225006246</v>
       </c>
       <c r="K6">
-        <v>1.065632114155433</v>
+        <v>1.050102870143225</v>
       </c>
       <c r="L6">
-        <v>1.065270129981676</v>
+        <v>1.049721589189959</v>
       </c>
       <c r="M6">
-        <v>1.075624162123917</v>
+        <v>1.059064694962068</v>
       </c>
       <c r="N6">
-        <v>1.024118829214149</v>
+        <v>1.019197637639644</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056472706542188</v>
+        <v>1.027476855182701</v>
       </c>
       <c r="D7">
-        <v>1.062960176702215</v>
+        <v>1.039355782492984</v>
       </c>
       <c r="E7">
-        <v>1.062600819317578</v>
+        <v>1.038988623862747</v>
       </c>
       <c r="F7">
-        <v>1.072958804642412</v>
+        <v>1.048348129676557</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041339900619248</v>
+        <v>1.052471695697491</v>
       </c>
       <c r="J7">
-        <v>1.060906377610962</v>
+        <v>1.046197047505232</v>
       </c>
       <c r="K7">
-        <v>1.065377149074612</v>
+        <v>1.04899848377285</v>
       </c>
       <c r="L7">
-        <v>1.065018651659899</v>
+        <v>1.048635353896108</v>
       </c>
       <c r="M7">
-        <v>1.075352097401297</v>
+        <v>1.057893239565284</v>
       </c>
       <c r="N7">
-        <v>1.024037089961072</v>
+        <v>1.018833193433339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055003590107941</v>
+        <v>1.020630629411945</v>
       </c>
       <c r="D8">
-        <v>1.061649387035491</v>
+        <v>1.03353367145009</v>
       </c>
       <c r="E8">
-        <v>1.061304633804516</v>
+        <v>1.033245377605679</v>
       </c>
       <c r="F8">
-        <v>1.071579109729429</v>
+        <v>1.042251335760729</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041100180459965</v>
+        <v>1.050924109987443</v>
       </c>
       <c r="J8">
-        <v>1.059896721301164</v>
+        <v>1.04165684942184</v>
       </c>
       <c r="K8">
-        <v>1.064311103120781</v>
+        <v>1.044277786813204</v>
       </c>
       <c r="L8">
-        <v>1.063967263904236</v>
+        <v>1.043993089776421</v>
       </c>
       <c r="M8">
-        <v>1.074214772546179</v>
+        <v>1.052887856520204</v>
       </c>
       <c r="N8">
-        <v>1.023694918248115</v>
+        <v>1.017272801871744</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052416270855899</v>
+        <v>1.007955806702193</v>
       </c>
       <c r="D9">
-        <v>1.059343086414536</v>
+        <v>1.022799827698624</v>
       </c>
       <c r="E9">
-        <v>1.059024404508379</v>
+        <v>1.022661629120899</v>
       </c>
       <c r="F9">
-        <v>1.069152061025528</v>
+        <v>1.031014913393911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040666887208824</v>
+        <v>1.047969071323893</v>
       </c>
       <c r="J9">
-        <v>1.058114627272488</v>
+        <v>1.033230719399088</v>
       </c>
       <c r="K9">
-        <v>1.062431350257568</v>
+        <v>1.035533515425343</v>
       </c>
       <c r="L9">
-        <v>1.062113658790376</v>
+        <v>1.03539743365496</v>
       </c>
       <c r="M9">
-        <v>1.072210154395871</v>
+        <v>1.043624067149597</v>
       </c>
       <c r="N9">
-        <v>1.023090036068289</v>
+        <v>1.014372992111549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050692344423985</v>
+        <v>0.99904322153868</v>
       </c>
       <c r="D10">
-        <v>1.057807906194489</v>
+        <v>1.015286389687036</v>
       </c>
       <c r="E10">
-        <v>1.057506833699419</v>
+        <v>1.015256633788731</v>
       </c>
       <c r="F10">
-        <v>1.067536834052123</v>
+        <v>1.023152265724518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040370724459911</v>
+        <v>1.045833286798676</v>
       </c>
       <c r="J10">
-        <v>1.056924587669662</v>
+        <v>1.027294851647625</v>
       </c>
       <c r="K10">
-        <v>1.061177355364668</v>
+        <v>1.029385021865791</v>
       </c>
       <c r="L10">
-        <v>1.060877310643747</v>
+        <v>1.029355782504979</v>
       </c>
       <c r="M10">
-        <v>1.070873414197286</v>
+        <v>1.03711571352153</v>
       </c>
       <c r="N10">
-        <v>1.02268548998078</v>
+        <v>1.012328022371149</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049946085282966</v>
+        <v>0.9950614268157828</v>
       </c>
       <c r="D11">
-        <v>1.057143716743873</v>
+        <v>1.011938744242864</v>
       </c>
       <c r="E11">
-        <v>1.056850323968651</v>
+        <v>1.011958155853993</v>
       </c>
       <c r="F11">
-        <v>1.066838090707149</v>
+        <v>1.019649639956608</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040240753264235</v>
+        <v>1.04486608509812</v>
       </c>
       <c r="J11">
-        <v>1.056408819162864</v>
+        <v>1.024641109261631</v>
       </c>
       <c r="K11">
-        <v>1.060634167046795</v>
+        <v>1.02663897152098</v>
       </c>
       <c r="L11">
-        <v>1.060341814773412</v>
+        <v>1.026658028225739</v>
       </c>
       <c r="M11">
-        <v>1.070294514930001</v>
+        <v>1.034210268796981</v>
       </c>
       <c r="N11">
-        <v>1.022510012120831</v>
+        <v>1.011413371289711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049668922689477</v>
+        <v>0.9935627980423157</v>
       </c>
       <c r="D12">
-        <v>1.056897090486069</v>
+        <v>1.010680236869444</v>
       </c>
       <c r="E12">
-        <v>1.056606558562936</v>
+        <v>1.010718264661067</v>
       </c>
       <c r="F12">
-        <v>1.066578645650943</v>
+        <v>1.018332961481484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040192216266221</v>
+        <v>1.044500168012012</v>
       </c>
       <c r="J12">
-        <v>1.056217168591504</v>
+        <v>1.023642112671628</v>
       </c>
       <c r="K12">
-        <v>1.060432372643269</v>
+        <v>1.025605641530042</v>
       </c>
       <c r="L12">
-        <v>1.060142885415386</v>
+        <v>1.025642960755467</v>
       </c>
       <c r="M12">
-        <v>1.070079473704228</v>
+        <v>1.033117162120484</v>
       </c>
       <c r="N12">
-        <v>1.022444785821129</v>
+        <v>1.011069000516385</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049728373601276</v>
+        <v>0.9938851668223286</v>
       </c>
       <c r="D13">
-        <v>1.056949988885685</v>
+        <v>1.010950886577347</v>
       </c>
       <c r="E13">
-        <v>1.056658842925548</v>
+        <v>1.010984904795663</v>
       </c>
       <c r="F13">
-        <v>1.066634292999751</v>
+        <v>1.018616117087065</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040202639376557</v>
+        <v>1.044578964487941</v>
       </c>
       <c r="J13">
-        <v>1.056258281511539</v>
+        <v>1.023857014216352</v>
       </c>
       <c r="K13">
-        <v>1.060475659588722</v>
+        <v>1.025827909961087</v>
       </c>
       <c r="L13">
-        <v>1.060185557448791</v>
+        <v>1.025861296884546</v>
       </c>
       <c r="M13">
-        <v>1.070125601331255</v>
+        <v>1.033352279240469</v>
       </c>
       <c r="N13">
-        <v>1.022458779164668</v>
+        <v>1.011143082855204</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049923174302076</v>
+        <v>0.9949379570589112</v>
       </c>
       <c r="D14">
-        <v>1.057123328841128</v>
+        <v>1.011835027830534</v>
       </c>
       <c r="E14">
-        <v>1.056830172376057</v>
+        <v>1.011855970928293</v>
       </c>
       <c r="F14">
-        <v>1.066816642870986</v>
+        <v>1.019541127665198</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040236746482205</v>
+        <v>1.044835975781523</v>
       </c>
       <c r="J14">
-        <v>1.056392978719221</v>
+        <v>1.024558807247563</v>
       </c>
       <c r="K14">
-        <v>1.060617487271951</v>
+        <v>1.026553832498428</v>
       </c>
       <c r="L14">
-        <v>1.060325371666346</v>
+        <v>1.026574392086836</v>
       </c>
       <c r="M14">
-        <v>1.070276739805064</v>
+        <v>1.034120200457474</v>
       </c>
       <c r="N14">
-        <v>1.0225046214327</v>
+        <v>1.011385001415112</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050043201569049</v>
+        <v>0.9955839795182059</v>
       </c>
       <c r="D15">
-        <v>1.057230140346287</v>
+        <v>1.012377755643815</v>
       </c>
       <c r="E15">
-        <v>1.056935746238781</v>
+        <v>1.012390690186876</v>
       </c>
       <c r="F15">
-        <v>1.06692900781025</v>
+        <v>1.020108955126813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04025772655881</v>
+        <v>1.044993438073827</v>
       </c>
       <c r="J15">
-        <v>1.056475960680648</v>
+        <v>1.024989422486204</v>
       </c>
       <c r="K15">
-        <v>1.060704868003311</v>
+        <v>1.0269993082997</v>
       </c>
       <c r="L15">
-        <v>1.060411512859748</v>
+        <v>1.027012007931788</v>
       </c>
       <c r="M15">
-        <v>1.070369859583544</v>
+        <v>1.034591476379961</v>
       </c>
       <c r="N15">
-        <v>1.022532860272542</v>
+        <v>1.01153343436386</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050741875606269</v>
+        <v>0.99930479755894</v>
       </c>
       <c r="D16">
-        <v>1.0578519979345</v>
+        <v>1.015506502156449</v>
       </c>
       <c r="E16">
-        <v>1.05755041691819</v>
+        <v>1.015473531507536</v>
       </c>
       <c r="F16">
-        <v>1.067583221272031</v>
+        <v>1.023382581108975</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040379313764971</v>
+        <v>1.045896559708248</v>
       </c>
       <c r="J16">
-        <v>1.056958807546783</v>
+        <v>1.027469151496258</v>
       </c>
       <c r="K16">
-        <v>1.061213400766019</v>
+        <v>1.029565441990197</v>
       </c>
       <c r="L16">
-        <v>1.060912846605211</v>
+        <v>1.029533041691098</v>
       </c>
       <c r="M16">
-        <v>1.070911832112813</v>
+        <v>1.037306634028979</v>
       </c>
       <c r="N16">
-        <v>1.022697129412207</v>
+        <v>1.012388089644827</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051180191786536</v>
+        <v>1.001605134910948</v>
       </c>
       <c r="D17">
-        <v>1.058242221077712</v>
+        <v>1.017443242769487</v>
       </c>
       <c r="E17">
-        <v>1.057936146583961</v>
+        <v>1.017382083229881</v>
       </c>
       <c r="F17">
-        <v>1.067993769013603</v>
+        <v>1.025409165405555</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040455118914976</v>
+        <v>1.046451519302605</v>
       </c>
       <c r="J17">
-        <v>1.057261557826921</v>
+        <v>1.029001769590512</v>
       </c>
       <c r="K17">
-        <v>1.061532336325555</v>
+        <v>1.031152188336138</v>
       </c>
       <c r="L17">
-        <v>1.06122728015893</v>
+        <v>1.031092054347772</v>
       </c>
       <c r="M17">
-        <v>1.07125177525804</v>
+        <v>1.038985879607819</v>
       </c>
       <c r="N17">
-        <v>1.022800089034501</v>
+        <v>1.012916215724533</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051435874732407</v>
+        <v>1.002935140773417</v>
       </c>
       <c r="D18">
-        <v>1.058469885054718</v>
+        <v>1.018563877359455</v>
       </c>
       <c r="E18">
-        <v>1.058161194869457</v>
+        <v>1.018486487545454</v>
       </c>
       <c r="F18">
-        <v>1.06823329829719</v>
+        <v>1.026581843243363</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040499167774075</v>
+        <v>1.046771148065615</v>
       </c>
       <c r="J18">
-        <v>1.05743810125971</v>
+        <v>1.029887718788467</v>
       </c>
       <c r="K18">
-        <v>1.06171834671922</v>
+        <v>1.032069687222056</v>
       </c>
       <c r="L18">
-        <v>1.06141066955602</v>
+        <v>1.031993571475172</v>
       </c>
       <c r="M18">
-        <v>1.071450050433985</v>
+        <v>1.039956989436381</v>
       </c>
       <c r="N18">
-        <v>1.022860114039883</v>
+        <v>1.013221466356254</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051523059511551</v>
+        <v>1.003386681469343</v>
       </c>
       <c r="D19">
-        <v>1.058547521645737</v>
+        <v>1.018944478119036</v>
       </c>
       <c r="E19">
-        <v>1.058237940471269</v>
+        <v>1.0188615895232</v>
       </c>
       <c r="F19">
-        <v>1.068314982400284</v>
+        <v>1.0269801292739</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040514158966569</v>
+        <v>1.046879451228282</v>
       </c>
       <c r="J19">
-        <v>1.057498290260652</v>
+        <v>1.030188468902104</v>
       </c>
       <c r="K19">
-        <v>1.06178176817886</v>
+        <v>1.032381191462244</v>
       </c>
       <c r="L19">
-        <v>1.061473198162022</v>
+        <v>1.032299658878742</v>
       </c>
       <c r="M19">
-        <v>1.071517655802081</v>
+        <v>1.040286716548738</v>
       </c>
       <c r="N19">
-        <v>1.022880575992539</v>
+        <v>1.013325081793746</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051133162489071</v>
+        <v>1.001359553339467</v>
       </c>
       <c r="D20">
-        <v>1.058200348301292</v>
+        <v>1.017236389329918</v>
       </c>
       <c r="E20">
-        <v>1.057894755368948</v>
+        <v>1.017178232135299</v>
       </c>
       <c r="F20">
-        <v>1.06794971453349</v>
+        <v>1.025192710200293</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04044700301273</v>
+        <v>1.04639240034211</v>
       </c>
       <c r="J20">
-        <v>1.057229080312535</v>
+        <v>1.02883816689754</v>
       </c>
       <c r="K20">
-        <v>1.061498119556815</v>
+        <v>1.030982780582966</v>
       </c>
       <c r="L20">
-        <v>1.061193545900931</v>
+        <v>1.030925601880421</v>
       </c>
       <c r="M20">
-        <v>1.071215303393387</v>
+        <v>1.038806583203701</v>
       </c>
       <c r="N20">
-        <v>1.022789045502564</v>
+        <v>1.012859843757169</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049865809492561</v>
+        <v>0.9946284880909131</v>
       </c>
       <c r="D21">
-        <v>1.057072282245071</v>
+        <v>1.01157509293507</v>
       </c>
       <c r="E21">
-        <v>1.056779717595196</v>
+        <v>1.011599876402635</v>
       </c>
       <c r="F21">
-        <v>1.066762942636062</v>
+        <v>1.019269174780097</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040226709963483</v>
+        <v>1.044760478496376</v>
       </c>
       <c r="J21">
-        <v>1.05635331571416</v>
+        <v>1.024352519469499</v>
       </c>
       <c r="K21">
-        <v>1.060575723384393</v>
+        <v>1.026340440539216</v>
       </c>
       <c r="L21">
-        <v>1.060284200480737</v>
+        <v>1.026364768384889</v>
       </c>
       <c r="M21">
-        <v>1.070232233629667</v>
+        <v>1.033894456966783</v>
       </c>
       <c r="N21">
-        <v>1.022491123296845</v>
+        <v>1.011313892284849</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049069155022373</v>
+        <v>0.9902822589003881</v>
       </c>
       <c r="D22">
-        <v>1.056363504202542</v>
+        <v>1.00792809009102</v>
       </c>
       <c r="E22">
-        <v>1.056079178773072</v>
+        <v>1.008007076814102</v>
       </c>
       <c r="F22">
-        <v>1.066017346798743</v>
+        <v>1.01545377329975</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040086699286748</v>
+        <v>1.04369575971149</v>
       </c>
       <c r="J22">
-        <v>1.055802275885934</v>
+        <v>1.021454979247251</v>
       </c>
       <c r="K22">
-        <v>1.059995602290849</v>
+        <v>1.023344109231662</v>
       </c>
       <c r="L22">
-        <v>1.059712329635733</v>
+        <v>1.023421563469054</v>
       </c>
       <c r="M22">
-        <v>1.069614067729065</v>
+        <v>1.030725180940091</v>
       </c>
       <c r="N22">
-        <v>1.022303541622005</v>
+        <v>1.010314974124168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049491459715039</v>
+        <v>0.9925975224446346</v>
       </c>
       <c r="D23">
-        <v>1.056739195149362</v>
+        <v>1.009870043583121</v>
       </c>
       <c r="E23">
-        <v>1.056450497407016</v>
+        <v>1.009920093824066</v>
       </c>
       <c r="F23">
-        <v>1.066412546749768</v>
+        <v>1.017485345109698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040161064088138</v>
+        <v>1.044263954053537</v>
       </c>
       <c r="J23">
-        <v>1.05609443157975</v>
+        <v>1.022998603551836</v>
       </c>
       <c r="K23">
-        <v>1.060303151949804</v>
+        <v>1.02494013388521</v>
       </c>
       <c r="L23">
-        <v>1.060015501435247</v>
+        <v>1.024989240248413</v>
       </c>
       <c r="M23">
-        <v>1.069941775875494</v>
+        <v>1.032413213452552</v>
       </c>
       <c r="N23">
-        <v>1.022403007421254</v>
+        <v>1.01084715874384</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051154412940533</v>
+        <v>1.001470557279023</v>
       </c>
       <c r="D24">
-        <v>1.058219268641387</v>
+        <v>1.017329885347075</v>
       </c>
       <c r="E24">
-        <v>1.057913458095874</v>
+        <v>1.017270370868937</v>
       </c>
       <c r="F24">
-        <v>1.067969620659705</v>
+        <v>1.025290545955045</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040450670755585</v>
+        <v>1.046419126211361</v>
       </c>
       <c r="J24">
-        <v>1.057243755644331</v>
+        <v>1.028912116583667</v>
       </c>
       <c r="K24">
-        <v>1.061513580701345</v>
+        <v>1.031059353394464</v>
       </c>
       <c r="L24">
-        <v>1.061208789004347</v>
+        <v>1.031000838724694</v>
       </c>
       <c r="M24">
-        <v>1.071231783483428</v>
+        <v>1.038887625326255</v>
       </c>
       <c r="N24">
-        <v>1.022794035690713</v>
+        <v>1.012885324446261</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053084985246027</v>
+        <v>1.011310057819107</v>
       </c>
       <c r="D25">
-        <v>1.059938906674737</v>
+        <v>1.025634810499571</v>
       </c>
       <c r="E25">
-        <v>1.059613444571704</v>
+        <v>1.025456402140303</v>
       </c>
       <c r="F25">
-        <v>1.069779017920592</v>
+        <v>1.033982189562286</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040780191530336</v>
+        <v>1.048761264854244</v>
       </c>
       <c r="J25">
-        <v>1.058575690246518</v>
+        <v>1.035462697701345</v>
       </c>
       <c r="K25">
-        <v>1.062917457796283</v>
+        <v>1.037847798158419</v>
       </c>
       <c r="L25">
-        <v>1.062592968703551</v>
+        <v>1.037671987082549</v>
       </c>
       <c r="M25">
-        <v>1.072728454975551</v>
+        <v>1.046074923425675</v>
       </c>
       <c r="N25">
-        <v>1.023246640765683</v>
+        <v>1.015141522843891</v>
       </c>
     </row>
   </sheetData>
